--- a/result/interactions_download/EXCEL/Gastric_cancer_only_precog.xlsx
+++ b/result/interactions_download/EXCEL/Gastric_cancer_only_precog.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t xml:space="preserve">gene_list</t>
   </si>
@@ -51,10 +51,13 @@
     <t xml:space="preserve">HSPA6</t>
   </si>
   <si>
+    <t xml:space="preserve">RPL37A</t>
+  </si>
+  <si>
     <t xml:space="preserve">CENPA</t>
   </si>
   <si>
-    <t xml:space="preserve">RPL37A</t>
+    <t xml:space="preserve">RPF2</t>
   </si>
   <si>
     <t xml:space="preserve">FGD5</t>
@@ -63,9 +66,6 @@
     <t xml:space="preserve">DCAF4</t>
   </si>
   <si>
-    <t xml:space="preserve">RPF2</t>
-  </si>
-  <si>
     <t xml:space="preserve">RFC5</t>
   </si>
   <si>
@@ -78,18 +78,18 @@
     <t xml:space="preserve">HSPA1B</t>
   </si>
   <si>
+    <t xml:space="preserve">MRPS14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZUFSP</t>
+  </si>
+  <si>
     <t xml:space="preserve">KIF4A</t>
   </si>
   <si>
     <t xml:space="preserve">THOC6</t>
   </si>
   <si>
-    <t xml:space="preserve">ZUFSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRPS14</t>
-  </si>
-  <si>
     <t xml:space="preserve">TOMM20</t>
   </si>
   <si>
@@ -111,37 +111,46 @@
     <t xml:space="preserve">RFWD3</t>
   </si>
   <si>
+    <t xml:space="preserve">DSTN</t>
+  </si>
+  <si>
     <t xml:space="preserve">EFHD2</t>
   </si>
   <si>
-    <t xml:space="preserve">DSTN</t>
-  </si>
-  <si>
     <t xml:space="preserve">MRPL10</t>
   </si>
   <si>
+    <t xml:space="preserve">VPS45</t>
+  </si>
+  <si>
     <t xml:space="preserve">CDT1</t>
   </si>
   <si>
-    <t xml:space="preserve">VPS45</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZNF280C</t>
   </si>
   <si>
+    <t xml:space="preserve">TSPYL5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARL6IP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNNT1</t>
+  </si>
+  <si>
     <t xml:space="preserve">GINS4</t>
   </si>
   <si>
-    <t xml:space="preserve">TSPYL5</t>
-  </si>
-  <si>
     <t xml:space="preserve">ORC6</t>
   </si>
   <si>
-    <t xml:space="preserve">TNNT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARL6IP5</t>
+    <t xml:space="preserve">PTPN6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUDCD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS19BP1</t>
   </si>
   <si>
     <t xml:space="preserve">COG4</t>
@@ -150,15 +159,6 @@
     <t xml:space="preserve">ZNF414</t>
   </si>
   <si>
-    <t xml:space="preserve">PTPN6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUDCD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPS19BP1</t>
-  </si>
-  <si>
     <t xml:space="preserve">MANF</t>
   </si>
   <si>
@@ -168,21 +168,21 @@
     <t xml:space="preserve">CENPK</t>
   </si>
   <si>
+    <t xml:space="preserve">PDZD11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOBEC3B</t>
+  </si>
+  <si>
     <t xml:space="preserve">SNUPN</t>
   </si>
   <si>
     <t xml:space="preserve">KIF18A</t>
   </si>
   <si>
-    <t xml:space="preserve">APOBEC3B</t>
-  </si>
-  <si>
     <t xml:space="preserve">PCBP4</t>
   </si>
   <si>
-    <t xml:space="preserve">PDZD11</t>
-  </si>
-  <si>
     <t xml:space="preserve">PPCDC</t>
   </si>
   <si>
@@ -192,6 +192,9 @@
     <t xml:space="preserve">PI4K2B</t>
   </si>
   <si>
+    <t xml:space="preserve">ZNF227</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSMC3IP</t>
   </si>
   <si>
@@ -210,21 +213,24 @@
     <t xml:space="preserve">AKR7A3</t>
   </si>
   <si>
+    <t xml:space="preserve">SLC48A1</t>
+  </si>
+  <si>
     <t xml:space="preserve">FAM170A</t>
   </si>
   <si>
-    <t xml:space="preserve">ZNF227</t>
+    <t xml:space="preserve">KRTAP5-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIBC2</t>
   </si>
   <si>
     <t xml:space="preserve">SPRYD3</t>
   </si>
   <si>
-    <t xml:space="preserve">CCNY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIBC2</t>
-  </si>
-  <si>
     <t xml:space="preserve">MB</t>
   </si>
   <si>
@@ -234,12 +240,6 @@
     <t xml:space="preserve">FXYD6</t>
   </si>
   <si>
-    <t xml:space="preserve">KRTAP5-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC48A1</t>
-  </si>
-  <si>
     <t xml:space="preserve">PKIA</t>
   </si>
   <si>
@@ -267,13 +267,19 @@
     <t xml:space="preserve">PNMAL2</t>
   </si>
   <si>
+    <t xml:space="preserve">TRIM59</t>
+  </si>
+  <si>
     <t xml:space="preserve">SELM</t>
   </si>
   <si>
+    <t xml:space="preserve">FAM163A</t>
+  </si>
+  <si>
     <t xml:space="preserve">FBXL20</t>
   </si>
   <si>
-    <t xml:space="preserve">TRIM59</t>
+    <t xml:space="preserve">LOC153684</t>
   </si>
   <si>
     <t xml:space="preserve">CCL18</t>
@@ -288,7 +294,10 @@
     <t xml:space="preserve">SIDT2</t>
   </si>
   <si>
-    <t xml:space="preserve">FAM163A</t>
+    <t xml:space="preserve">TMEM179B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABHD14A</t>
   </si>
   <si>
     <t xml:space="preserve">TMSB15A</t>
@@ -306,9 +315,6 @@
     <t xml:space="preserve">LOC100128361</t>
   </si>
   <si>
-    <t xml:space="preserve">TMEM179B</t>
-  </si>
-  <si>
     <t xml:space="preserve">FLJ20021</t>
   </si>
   <si>
@@ -339,15 +345,9 @@
     <t xml:space="preserve">FAM104B</t>
   </si>
   <si>
-    <t xml:space="preserve">LOC153684</t>
-  </si>
-  <si>
     <t xml:space="preserve">OR8D1</t>
   </si>
   <si>
-    <t xml:space="preserve">ABHD14A</t>
-  </si>
-  <si>
     <t xml:space="preserve">CCL21</t>
   </si>
   <si>
@@ -429,6 +429,9 @@
     <t xml:space="preserve">LRRC59</t>
   </si>
   <si>
+    <t xml:space="preserve">SEC62</t>
+  </si>
+  <si>
     <t xml:space="preserve">IKZF1</t>
   </si>
   <si>
@@ -520,6 +523,9 @@
   </si>
   <si>
     <t xml:space="preserve">FBXO7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZR</t>
   </si>
   <si>
     <t xml:space="preserve">GNL3</t>
@@ -912,13 +918,13 @@
         <v>3.09</v>
       </c>
       <c r="D2" t="n">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E2" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F2" t="n">
-        <v>81.7176870748299</v>
+        <v>81.890365448505</v>
       </c>
     </row>
     <row r="3">
@@ -932,13 +938,13 @@
         <v>-2.949</v>
       </c>
       <c r="D3" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E3" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F3" t="n">
-        <v>72.7480620155039</v>
+        <v>75.5931558935361</v>
       </c>
     </row>
     <row r="4">
@@ -952,13 +958,13 @@
         <v>2.957</v>
       </c>
       <c r="D4" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2512315270936</v>
+        <v>53.5194174757282</v>
       </c>
     </row>
     <row r="5">
@@ -972,13 +978,13 @@
         <v>2.675</v>
       </c>
       <c r="D5" t="n">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E5" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F5" t="n">
-        <v>45.0666666666667</v>
+        <v>47.2226720647773</v>
       </c>
     </row>
     <row r="6">
@@ -992,13 +998,13 @@
         <v>2.783</v>
       </c>
       <c r="D6" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E6" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F6" t="n">
-        <v>40.9645390070922</v>
+        <v>41.9586206896552</v>
       </c>
     </row>
     <row r="7">
@@ -1009,16 +1015,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2.753</v>
+        <v>2.62</v>
       </c>
       <c r="D7" t="n">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="E7" t="n">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="F7" t="n">
-        <v>35.7567567567568</v>
+        <v>37.3271889400922</v>
       </c>
     </row>
     <row r="8">
@@ -1029,16 +1035,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2.62</v>
+        <v>2.753</v>
       </c>
       <c r="D8" t="n">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="E8" t="n">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F8" t="n">
-        <v>35.3875598086124</v>
+        <v>35.4375</v>
       </c>
     </row>
     <row r="9">
@@ -1049,16 +1055,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.655</v>
+        <v>2.721</v>
       </c>
       <c r="D9" t="n">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="E9" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F9" t="n">
-        <v>28.8712871287129</v>
+        <v>30.6159420289855</v>
       </c>
     </row>
     <row r="10">
@@ -1069,16 +1075,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>2.857</v>
+        <v>-2.655</v>
       </c>
       <c r="D10" t="n">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E10" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" t="n">
-        <v>28.5</v>
+        <v>30.1538461538462</v>
       </c>
     </row>
     <row r="11">
@@ -1089,16 +1095,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>2.721</v>
+        <v>2.857</v>
       </c>
       <c r="D11" t="n">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E11" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F11" t="n">
-        <v>28.1893939393939</v>
+        <v>28.5084745762712</v>
       </c>
     </row>
     <row r="12">
@@ -1112,13 +1118,13 @@
         <v>3.328</v>
       </c>
       <c r="D12" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" t="n">
-        <v>26.912</v>
+        <v>27.6269841269841</v>
       </c>
     </row>
     <row r="13">
@@ -1132,13 +1138,13 @@
         <v>-3.082</v>
       </c>
       <c r="D13" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E13" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F13" t="n">
-        <v>25.6266666666667</v>
+        <v>26.7712418300654</v>
       </c>
     </row>
     <row r="14">
@@ -1152,13 +1158,13 @@
         <v>-2.818</v>
       </c>
       <c r="D14" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F14" t="n">
-        <v>25.2525252525253</v>
+        <v>26.5098039215686</v>
       </c>
     </row>
     <row r="15">
@@ -1172,13 +1178,13 @@
         <v>2.851</v>
       </c>
       <c r="D15" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F15" t="n">
-        <v>23.6842105263158</v>
+        <v>24.0064516129032</v>
       </c>
     </row>
     <row r="16">
@@ -1189,16 +1195,16 @@
         <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>3.123</v>
+        <v>2.606</v>
       </c>
       <c r="D16" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E16" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" t="n">
-        <v>20.3380281690141</v>
+        <v>20.8356164383562</v>
       </c>
     </row>
     <row r="17">
@@ -1209,16 +1215,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>2.697</v>
+        <v>2.591</v>
       </c>
       <c r="D17" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>19.758064516129</v>
+        <v>20.48</v>
       </c>
     </row>
     <row r="18">
@@ -1229,16 +1235,16 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>2.591</v>
+        <v>3.123</v>
       </c>
       <c r="D18" t="n">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E18" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F18" t="n">
-        <v>19.6122448979592</v>
+        <v>20.3380281690141</v>
       </c>
     </row>
     <row r="19">
@@ -1249,16 +1255,16 @@
         <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>2.606</v>
+        <v>2.697</v>
       </c>
       <c r="D19" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E19" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="n">
-        <v>19.2816901408451</v>
+        <v>19.758064516129</v>
       </c>
     </row>
     <row r="20">
@@ -1272,13 +1278,13 @@
         <v>3.06</v>
       </c>
       <c r="D20" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" t="n">
         <v>38</v>
       </c>
       <c r="F20" t="n">
-        <v>17.8271604938272</v>
+        <v>17.609756097561</v>
       </c>
     </row>
     <row r="21">
@@ -1292,13 +1298,13 @@
         <v>-2.623</v>
       </c>
       <c r="D21" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F21" t="n">
-        <v>15.2909090909091</v>
+        <v>15.7894736842105</v>
       </c>
     </row>
     <row r="22">
@@ -1312,13 +1318,13 @@
         <v>3.122</v>
       </c>
       <c r="D22" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E22" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" t="n">
-        <v>14.45</v>
+        <v>14.7590361445783</v>
       </c>
     </row>
     <row r="23">
@@ -1332,13 +1338,13 @@
         <v>-2.681</v>
       </c>
       <c r="D23" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" t="n">
-        <v>14.0625</v>
+        <v>14.3432835820896</v>
       </c>
     </row>
     <row r="24">
@@ -1392,13 +1398,13 @@
         <v>3.757</v>
       </c>
       <c r="D26" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" t="n">
         <v>24</v>
       </c>
       <c r="F26" t="n">
-        <v>13.0909090909091</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="27">
@@ -1409,16 +1415,16 @@
         <v>7</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.666</v>
+        <v>-2.786</v>
       </c>
       <c r="D27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E27" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F27" t="n">
-        <v>11.7014925373134</v>
+        <v>11.8641975308642</v>
       </c>
     </row>
     <row r="28">
@@ -1429,16 +1435,16 @@
         <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>-2.786</v>
+        <v>-2.666</v>
       </c>
       <c r="D28" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E28" t="n">
         <v>28</v>
       </c>
       <c r="F28" t="n">
-        <v>10.1818181818182</v>
+        <v>11.7014925373134</v>
       </c>
     </row>
     <row r="29">
@@ -1452,13 +1458,13 @@
         <v>2.621</v>
       </c>
       <c r="D29" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F29" t="n">
-        <v>10.0833333333333</v>
+        <v>10.7959183673469</v>
       </c>
     </row>
     <row r="30">
@@ -1469,16 +1475,16 @@
         <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>2.841</v>
+        <v>2.659</v>
       </c>
       <c r="D30" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="E30" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F30" t="n">
-        <v>10.0277777777778</v>
+        <v>10.5125</v>
       </c>
     </row>
     <row r="31">
@@ -1489,16 +1495,16 @@
         <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>2.659</v>
+        <v>2.841</v>
       </c>
       <c r="D31" t="n">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="E31" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F31" t="n">
-        <v>9.92405063291139</v>
+        <v>10.0277777777778</v>
       </c>
     </row>
     <row r="32">
@@ -1512,13 +1518,13 @@
         <v>3.01</v>
       </c>
       <c r="D32" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E32" t="n">
         <v>20</v>
       </c>
       <c r="F32" t="n">
-        <v>9.30232558139535</v>
+        <v>9.09090909090909</v>
       </c>
     </row>
     <row r="33">
@@ -1529,16 +1535,16 @@
         <v>7</v>
       </c>
       <c r="C33" t="n">
-        <v>2.633</v>
+        <v>2.729</v>
       </c>
       <c r="D33" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E33" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F33" t="n">
-        <v>7.84</v>
+        <v>9.025</v>
       </c>
     </row>
     <row r="34">
@@ -1549,16 +1555,16 @@
         <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>2.729</v>
+        <v>-3.706</v>
       </c>
       <c r="D34" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="E34" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F34" t="n">
-        <v>7.60526315789474</v>
+        <v>8.57647058823529</v>
       </c>
     </row>
     <row r="35">
@@ -1569,16 +1575,16 @@
         <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>2.722</v>
+        <v>2.953</v>
       </c>
       <c r="D35" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E35" t="n">
         <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1589,16 +1595,16 @@
         <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>2.953</v>
+        <v>2.633</v>
       </c>
       <c r="D36" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E36" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F36" t="n">
-        <v>7.11764705882353</v>
+        <v>7.53846153846154</v>
       </c>
     </row>
     <row r="37">
@@ -1609,16 +1615,16 @@
         <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.706</v>
+        <v>2.722</v>
       </c>
       <c r="D37" t="n">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="E37" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F37" t="n">
-        <v>7.02439024390244</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="38">
@@ -1629,16 +1635,16 @@
         <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>2.976</v>
+        <v>-2.611</v>
       </c>
       <c r="D38" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E38" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F38" t="n">
-        <v>6.8936170212766</v>
+        <v>7.01449275362319</v>
       </c>
     </row>
     <row r="39">
@@ -1649,16 +1655,16 @@
         <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>-2.778</v>
+        <v>2.71</v>
       </c>
       <c r="D39" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E39" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F39" t="n">
-        <v>6.72222222222222</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1669,16 +1675,16 @@
         <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>-2.611</v>
+        <v>-3.046</v>
       </c>
       <c r="D40" t="n">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E40" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F40" t="n">
-        <v>6.58208955223881</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1689,16 +1695,16 @@
         <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>2.71</v>
+        <v>2.976</v>
       </c>
       <c r="D41" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E41" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F41" t="n">
-        <v>6.25925925925926</v>
+        <v>6.8936170212766</v>
       </c>
     </row>
     <row r="42">
@@ -1709,16 +1715,16 @@
         <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>-3.046</v>
+        <v>-2.778</v>
       </c>
       <c r="D42" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E42" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F42" t="n">
-        <v>6.25925925925926</v>
+        <v>6.72222222222222</v>
       </c>
     </row>
     <row r="43">
@@ -1789,16 +1795,16 @@
         <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>-2.906</v>
+        <v>2.955</v>
       </c>
       <c r="D46" t="n">
+        <v>32</v>
+      </c>
+      <c r="E46" t="n">
         <v>13</v>
       </c>
-      <c r="E46" t="n">
-        <v>8</v>
-      </c>
       <c r="F46" t="n">
-        <v>4.92307692307692</v>
+        <v>5.28125</v>
       </c>
     </row>
     <row r="47">
@@ -1809,16 +1815,16 @@
         <v>7</v>
       </c>
       <c r="C47" t="n">
-        <v>2.761</v>
+        <v>2.991</v>
       </c>
       <c r="D47" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F47" t="n">
-        <v>4.76190476190476</v>
+        <v>5.11363636363636</v>
       </c>
     </row>
     <row r="48">
@@ -1829,16 +1835,16 @@
         <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>2.991</v>
+        <v>-2.906</v>
       </c>
       <c r="D48" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E48" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>4.55813953488372</v>
+        <v>4.92307692307692</v>
       </c>
     </row>
     <row r="49">
@@ -1849,16 +1855,16 @@
         <v>7</v>
       </c>
       <c r="C49" t="n">
-        <v>-2.65</v>
+        <v>2.761</v>
       </c>
       <c r="D49" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F49" t="n">
-        <v>4.26666666666667</v>
+        <v>4.76190476190476</v>
       </c>
     </row>
     <row r="50">
@@ -1869,16 +1875,16 @@
         <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>2.955</v>
+        <v>-2.65</v>
       </c>
       <c r="D50" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>4.17241379310345</v>
+        <v>4.26666666666667</v>
       </c>
     </row>
     <row r="51">
@@ -1932,13 +1938,13 @@
         <v>2.768</v>
       </c>
       <c r="D53" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>3.57142857142857</v>
+        <v>3.44827586206897</v>
       </c>
     </row>
     <row r="54">
@@ -1949,16 +1955,16 @@
         <v>7</v>
       </c>
       <c r="C54" t="n">
-        <v>2.848</v>
+        <v>2.759</v>
       </c>
       <c r="D54" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
-        <v>3.26666666666667</v>
+        <v>3.27272727272727</v>
       </c>
     </row>
     <row r="55">
@@ -1969,16 +1975,16 @@
         <v>7</v>
       </c>
       <c r="C55" t="n">
-        <v>3.21</v>
+        <v>2.848</v>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>3.2</v>
+        <v>3.26666666666667</v>
       </c>
     </row>
     <row r="56">
@@ -1989,16 +1995,16 @@
         <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>-2.684</v>
+        <v>3.21</v>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
-        <v>3.125</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="57">
@@ -2009,16 +2015,16 @@
         <v>7</v>
       </c>
       <c r="C57" t="n">
-        <v>-3.324</v>
+        <v>-2.684</v>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="58">
@@ -2029,16 +2035,16 @@
         <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>-2.805</v>
+        <v>-3.324</v>
       </c>
       <c r="D58" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
-        <v>2.72222222222222</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -2049,16 +2055,16 @@
         <v>7</v>
       </c>
       <c r="C59" t="n">
-        <v>2.868</v>
+        <v>-2.805</v>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>2.66666666666667</v>
+        <v>2.72222222222222</v>
       </c>
     </row>
     <row r="60">
@@ -2069,7 +2075,7 @@
         <v>7</v>
       </c>
       <c r="C60" t="n">
-        <v>2.975</v>
+        <v>2.868</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
@@ -2089,16 +2095,16 @@
         <v>7</v>
       </c>
       <c r="C61" t="n">
-        <v>2.759</v>
+        <v>-2.736</v>
       </c>
       <c r="D61" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>2.5</v>
+        <v>2.66666666666667</v>
       </c>
     </row>
     <row r="62">
@@ -2109,16 +2115,16 @@
         <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>-2.78</v>
+        <v>2.975</v>
       </c>
       <c r="D62" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>2.5</v>
+        <v>2.66666666666667</v>
       </c>
     </row>
     <row r="63">
@@ -2129,16 +2135,16 @@
         <v>7</v>
       </c>
       <c r="C63" t="n">
-        <v>-2.686</v>
+        <v>2.763</v>
       </c>
       <c r="D63" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63" t="n">
-        <v>2.33333333333333</v>
+        <v>2.57142857142857</v>
       </c>
     </row>
     <row r="64">
@@ -2149,16 +2155,16 @@
         <v>7</v>
       </c>
       <c r="C64" t="n">
-        <v>3.16</v>
+        <v>-2.686</v>
       </c>
       <c r="D64" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>2.27272727272727</v>
+        <v>2.33333333333333</v>
       </c>
     </row>
     <row r="65">
@@ -2169,16 +2175,16 @@
         <v>7</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.697</v>
+        <v>3.16</v>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
-        <v>2.25</v>
+        <v>2.27272727272727</v>
       </c>
     </row>
     <row r="66">
@@ -2189,16 +2195,16 @@
         <v>7</v>
       </c>
       <c r="C66" t="n">
-        <v>-3.259</v>
+        <v>-2.78</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>2.27272727272727</v>
       </c>
     </row>
     <row r="67">
@@ -2209,16 +2215,16 @@
         <v>7</v>
       </c>
       <c r="C67" t="n">
-        <v>-2.994</v>
+        <v>-2.697</v>
       </c>
       <c r="D67" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="68">
@@ -2229,16 +2235,16 @@
         <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>2.763</v>
+        <v>-3.259</v>
       </c>
       <c r="D68" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>1.92307692307692</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2249,16 +2255,16 @@
         <v>7</v>
       </c>
       <c r="C69" t="n">
-        <v>-2.736</v>
+        <v>-2.994</v>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -2449,16 +2455,16 @@
         <v>7</v>
       </c>
       <c r="C79" t="n">
-        <v>-2.903</v>
+        <v>2.979</v>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8</v>
+        <v>0.888888888888889</v>
       </c>
     </row>
     <row r="80">
@@ -2469,16 +2475,16 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>3.195</v>
+        <v>-2.903</v>
       </c>
       <c r="D80" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E80" t="n">
         <v>2</v>
       </c>
       <c r="F80" t="n">
-        <v>0.571428571428571</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="81">
@@ -2489,16 +2495,16 @@
         <v>7</v>
       </c>
       <c r="C81" t="n">
-        <v>2.979</v>
+        <v>2.97</v>
       </c>
       <c r="D81" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>0.529411764705882</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="82">
@@ -2509,16 +2515,16 @@
         <v>7</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.593</v>
+        <v>3.195</v>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>0.333333333333333</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="83">
@@ -2529,16 +2535,16 @@
         <v>7</v>
       </c>
       <c r="C83" t="n">
-        <v>-2.867</v>
+        <v>2.775</v>
       </c>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84">
@@ -2549,16 +2555,16 @@
         <v>7</v>
       </c>
       <c r="C84" t="n">
-        <v>-2.669</v>
+        <v>-2.593</v>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.25</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="85">
@@ -2569,16 +2575,16 @@
         <v>7</v>
       </c>
       <c r="C85" t="n">
-        <v>-2.603</v>
+        <v>-2.867</v>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85" t="n">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.25</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="86">
@@ -2589,16 +2595,16 @@
         <v>7</v>
       </c>
       <c r="C86" t="n">
-        <v>2.97</v>
+        <v>-2.669</v>
       </c>
       <c r="D86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E86" t="n">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.166666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="87">
@@ -2609,16 +2615,16 @@
         <v>7</v>
       </c>
       <c r="C87" t="n">
-        <v>3.184</v>
+        <v>-2.603</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="88">
@@ -2629,16 +2635,16 @@
         <v>7</v>
       </c>
       <c r="C88" t="n">
-        <v>3.062</v>
+        <v>-2.623</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="89">
@@ -2649,16 +2655,16 @@
         <v>7</v>
       </c>
       <c r="C89" t="n">
-        <v>2.965</v>
+        <v>-2.657</v>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>0.142857142857143</v>
       </c>
     </row>
     <row r="90">
@@ -2669,7 +2675,7 @@
         <v>7</v>
       </c>
       <c r="C90" t="n">
-        <v>2.58</v>
+        <v>3.184</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -2689,7 +2695,7 @@
         <v>7</v>
       </c>
       <c r="C91" t="n">
-        <v>3.18</v>
+        <v>3.062</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -2709,10 +2715,10 @@
         <v>7</v>
       </c>
       <c r="C92" t="n">
-        <v>-2.623</v>
+        <v>2.965</v>
       </c>
       <c r="D92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -2729,7 +2735,7 @@
         <v>7</v>
       </c>
       <c r="C93" t="n">
-        <v>3.208</v>
+        <v>2.58</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -2749,7 +2755,7 @@
         <v>7</v>
       </c>
       <c r="C94" t="n">
-        <v>3.049</v>
+        <v>3.18</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -2769,7 +2775,7 @@
         <v>7</v>
       </c>
       <c r="C95" t="n">
-        <v>3.273</v>
+        <v>3.208</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -2789,7 +2795,7 @@
         <v>7</v>
       </c>
       <c r="C96" t="n">
-        <v>2.764</v>
+        <v>3.049</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -2809,7 +2815,7 @@
         <v>7</v>
       </c>
       <c r="C97" t="n">
-        <v>3.85</v>
+        <v>3.273</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -2829,7 +2835,7 @@
         <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>2.66</v>
+        <v>2.764</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -2849,7 +2855,7 @@
         <v>7</v>
       </c>
       <c r="C99" t="n">
-        <v>2.78</v>
+        <v>3.85</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -2869,7 +2875,7 @@
         <v>7</v>
       </c>
       <c r="C100" t="n">
-        <v>-2.8</v>
+        <v>2.66</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -2889,7 +2895,7 @@
         <v>7</v>
       </c>
       <c r="C101" t="n">
-        <v>-3.009</v>
+        <v>2.78</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -2909,10 +2915,10 @@
         <v>7</v>
       </c>
       <c r="C102" t="n">
-        <v>-3.049</v>
+        <v>-2.8</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -2929,10 +2935,10 @@
         <v>7</v>
       </c>
       <c r="C103" t="n">
-        <v>2.775</v>
+        <v>-3.009</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -2949,10 +2955,10 @@
         <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>-2.68</v>
+        <v>-3.049</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -2969,10 +2975,10 @@
         <v>7</v>
       </c>
       <c r="C105" t="n">
-        <v>-2.657</v>
+        <v>-2.68</v>
       </c>
       <c r="D105" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -3730,6 +3736,26 @@
       <c r="D171"/>
       <c r="E171"/>
       <c r="F171"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172"/>
+      <c r="C172"/>
+      <c r="D172"/>
+      <c r="E172"/>
+      <c r="F172"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173"/>
+      <c r="C173"/>
+      <c r="D173"/>
+      <c r="E173"/>
+      <c r="F173"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3747,10 +3773,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2">
@@ -3758,7 +3784,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
@@ -3774,7 +3800,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5">
@@ -3782,7 +3808,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
@@ -3790,7 +3816,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7">
@@ -3798,7 +3824,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
@@ -3814,7 +3840,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
@@ -3846,7 +3872,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14">
@@ -3854,7 +3880,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
@@ -3870,12 +3896,12 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -3883,7 +3909,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -3899,7 +3925,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -3907,7 +3933,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -3915,7 +3941,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -3923,7 +3949,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -3931,7 +3957,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -3939,10 +3965,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" t="s">
         <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="26">
@@ -3950,7 +3976,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27">
@@ -3958,7 +3984,7 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28">
@@ -3966,7 +3992,7 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29">
@@ -3974,7 +4000,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30">
@@ -3982,7 +4008,7 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31">
@@ -3990,7 +4016,7 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32">
@@ -3998,7 +4024,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33">
@@ -4006,7 +4032,7 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34">
@@ -4014,20 +4040,20 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
@@ -4035,7 +4061,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
@@ -4043,7 +4069,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
@@ -4051,7 +4077,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
@@ -4059,23 +4085,23 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" t="s">
         <v>9</v>
-      </c>
-      <c r="B40" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
@@ -4083,7 +4109,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
@@ -4091,7 +4117,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
@@ -4099,7 +4125,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
@@ -4107,7 +4133,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
@@ -4115,7 +4141,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
@@ -4123,7 +4149,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -4131,18 +4157,18 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" t="s">
         <v>9</v>
-      </c>
-      <c r="B49" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51">
@@ -4150,7 +4176,7 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
@@ -4158,7 +4184,7 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53">
@@ -4166,7 +4192,7 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54">
@@ -4174,7 +4200,7 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
@@ -4182,7 +4208,7 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -4190,7 +4216,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57">
@@ -4198,7 +4224,7 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
@@ -4206,7 +4232,7 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
@@ -4214,7 +4240,7 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -4222,7 +4248,7 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61">
@@ -4230,7 +4256,7 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62">
@@ -4238,7 +4264,7 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63">
@@ -4246,7 +4272,7 @@
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -4254,7 +4280,7 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65">
@@ -4262,20 +4288,20 @@
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -4283,10 +4309,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
         <v>11</v>
-      </c>
-      <c r="B68" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="69">
@@ -4294,116 +4320,116 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" t="s">
         <v>12</v>
-      </c>
-      <c r="B71" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
         <v>12</v>
-      </c>
-      <c r="B72" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" t="s">
         <v>12</v>
-      </c>
-      <c r="B73" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" t="s">
         <v>12</v>
-      </c>
-      <c r="B74" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" t="s">
         <v>12</v>
-      </c>
-      <c r="B75" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" t="s">
         <v>12</v>
-      </c>
-      <c r="B76" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" t="s">
         <v>12</v>
-      </c>
-      <c r="B77" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" t="s">
         <v>12</v>
-      </c>
-      <c r="B78" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="B83" t="s">
         <v>13</v>
@@ -4411,34 +4437,34 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88">
@@ -4446,7 +4472,7 @@
         <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89">
@@ -4454,28 +4480,28 @@
         <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B92" t="s">
         <v>14</v>
@@ -4483,10 +4509,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
         <v>14</v>
-      </c>
-      <c r="B93" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="94">
@@ -4494,63 +4520,63 @@
         <v>14</v>
       </c>
       <c r="B94" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>174</v>
+      </c>
+      <c r="B100" t="s">
         <v>15</v>
-      </c>
-      <c r="B100" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" t="s">
         <v>15</v>
-      </c>
-      <c r="B101" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="102">
@@ -4558,7 +4584,7 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103">
@@ -4566,28 +4592,28 @@
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="B104" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
@@ -4598,15 +4624,15 @@
         <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109">
@@ -4614,15 +4640,15 @@
         <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111">
@@ -4630,36 +4656,36 @@
         <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="B115" t="s">
         <v>17</v>
@@ -4667,7 +4693,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B116" t="s">
         <v>17</v>
@@ -4675,7 +4701,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="B117" t="s">
         <v>17</v>
@@ -4683,26 +4709,26 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>144</v>
+      </c>
+      <c r="B118" t="s">
         <v>17</v>
-      </c>
-      <c r="B118" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>150</v>
+      </c>
+      <c r="B120" t="s">
         <v>18</v>
-      </c>
-      <c r="B120" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="121">
@@ -4710,20 +4736,20 @@
         <v>18</v>
       </c>
       <c r="B121" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="B122" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B123" t="s">
         <v>18</v>
@@ -4731,10 +4757,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>137</v>
+      </c>
+      <c r="B124" t="s">
         <v>18</v>
-      </c>
-      <c r="B124" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="125">
@@ -4742,7 +4768,7 @@
         <v>18</v>
       </c>
       <c r="B125" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126">
@@ -4750,23 +4776,23 @@
         <v>18</v>
       </c>
       <c r="B126" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" t="s">
         <v>19</v>
-      </c>
-      <c r="B128" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="129">
@@ -4774,7 +4800,7 @@
         <v>19</v>
       </c>
       <c r="B129" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130">
@@ -4782,31 +4808,31 @@
         <v>19</v>
       </c>
       <c r="B130" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B131" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
         <v>20</v>
-      </c>
-      <c r="B133" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="134">
@@ -4814,28 +4840,28 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="B137" t="s">
         <v>21</v>
@@ -4843,183 +4869,183 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>147</v>
+      </c>
+      <c r="B138" t="s">
         <v>21</v>
-      </c>
-      <c r="B138" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
         <v>21</v>
-      </c>
-      <c r="B139" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="B140" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B146" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B147" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B148" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="B149" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="B150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="B151" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B152" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>160</v>
+      </c>
+      <c r="B153" t="s">
         <v>24</v>
-      </c>
-      <c r="B153" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" t="s">
         <v>24</v>
-      </c>
-      <c r="B154" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>152</v>
+      </c>
+      <c r="B155" t="s">
         <v>24</v>
-      </c>
-      <c r="B155" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>133</v>
+      </c>
+      <c r="B156" t="s">
         <v>24</v>
-      </c>
-      <c r="B156" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B157" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158" t="s">
         <v>25</v>
-      </c>
-      <c r="B158" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="B159" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="B160" t="s">
         <v>25</v>
@@ -5027,7 +5053,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="B161" t="s">
         <v>25</v>
@@ -5035,7 +5061,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="B162" t="s">
         <v>25</v>
@@ -5043,47 +5069,47 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>153</v>
+      </c>
+      <c r="B163" t="s">
         <v>25</v>
-      </c>
-      <c r="B163" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="B164" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B165" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>150</v>
+      </c>
+      <c r="B166" t="s">
         <v>26</v>
-      </c>
-      <c r="B166" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="B167" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B168" t="s">
         <v>27</v>
@@ -5091,7 +5117,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="B169" t="s">
         <v>27</v>
@@ -5099,7 +5125,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="B170" t="s">
         <v>27</v>
@@ -5107,7 +5133,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="B171" t="s">
         <v>27</v>
@@ -5115,18 +5141,18 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B172" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" t="s">
         <v>28</v>
-      </c>
-      <c r="B173" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="174">
@@ -5134,7 +5160,7 @@
         <v>28</v>
       </c>
       <c r="B174" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
     </row>
     <row r="175">
@@ -5142,15 +5168,15 @@
         <v>28</v>
       </c>
       <c r="B175" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B176" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
     </row>
     <row r="177">
@@ -5158,7 +5184,7 @@
         <v>29</v>
       </c>
       <c r="B177" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="178">
@@ -5166,20 +5192,20 @@
         <v>29</v>
       </c>
       <c r="B178" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="B179" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B180" t="s">
         <v>30</v>
@@ -5187,15 +5213,15 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B182" t="s">
         <v>31</v>
@@ -5203,18 +5229,18 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
+        <v>135</v>
+      </c>
+      <c r="B183" t="s">
         <v>31</v>
-      </c>
-      <c r="B183" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B184" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="185">
@@ -5222,7 +5248,7 @@
         <v>32</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
     </row>
     <row r="186">
@@ -5230,31 +5256,31 @@
         <v>32</v>
       </c>
       <c r="B186" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="B187" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B188" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="B189" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
     </row>
     <row r="190">
@@ -5262,23 +5288,23 @@
         <v>33</v>
       </c>
       <c r="B190" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="B191" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
+        <v>147</v>
+      </c>
+      <c r="B192" t="s">
         <v>34</v>
-      </c>
-      <c r="B192" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="193">
@@ -5286,15 +5312,15 @@
         <v>34</v>
       </c>
       <c r="B193" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="B194" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
     </row>
     <row r="195">
@@ -5302,15 +5328,15 @@
         <v>130</v>
       </c>
       <c r="B195" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B196" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="197">
@@ -5318,7 +5344,7 @@
         <v>19</v>
       </c>
       <c r="B197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="198">
@@ -5326,20 +5352,20 @@
         <v>18</v>
       </c>
       <c r="B198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B200" t="s">
         <v>37</v>
@@ -5347,7 +5373,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="B201" t="s">
         <v>37</v>
@@ -5355,7 +5381,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="B202" t="s">
         <v>37</v>
@@ -5363,15 +5389,15 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B203" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B204" t="s">
         <v>126</v>
@@ -5379,47 +5405,47 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B205" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B206" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B207" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B208" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B209" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B210" t="s">
         <v>19</v>
@@ -5427,74 +5453,74 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B212" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B213" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="B214" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B215" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B216" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="B217" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="B218" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="B219" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="220">
@@ -5502,55 +5528,55 @@
         <v>48</v>
       </c>
       <c r="B220" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
+        <v>137</v>
+      </c>
+      <c r="B221" t="s">
         <v>48</v>
-      </c>
-      <c r="B221" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B222" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B223" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B224" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B226" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
     </row>
     <row r="227">
@@ -5558,31 +5584,31 @@
         <v>50</v>
       </c>
       <c r="B227" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="B228" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B229" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="B230" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
     </row>
     <row r="231">
@@ -5590,23 +5616,23 @@
         <v>52</v>
       </c>
       <c r="B231" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B232" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
+        <v>133</v>
+      </c>
+      <c r="B233" t="s">
         <v>53</v>
-      </c>
-      <c r="B233" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="234">
@@ -5614,12 +5640,12 @@
         <v>53</v>
       </c>
       <c r="B234" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="B235" t="s">
         <v>54</v>
@@ -5627,31 +5653,31 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B236" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="B237" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B238" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B239" t="s">
         <v>57</v>
@@ -5659,23 +5685,23 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="B240" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B241" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B242" t="s">
         <v>58</v>
@@ -5683,18 +5709,18 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="B243" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="B244" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
     </row>
     <row r="245">
@@ -5702,159 +5728,159 @@
         <v>136</v>
       </c>
       <c r="B245" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B246" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="B247" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B248" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B249" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B251" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="B252" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B253" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="B254" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B255" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="B256" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="B257" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B258" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="B259" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
+        <v>151</v>
+      </c>
+      <c r="B260" t="s">
         <v>122</v>
-      </c>
-      <c r="B260" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
+        <v>157</v>
+      </c>
+      <c r="B261" t="s">
         <v>122</v>
-      </c>
-      <c r="B261" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="B262" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B263" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B264" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="265">
@@ -5862,23 +5888,23 @@
         <v>123</v>
       </c>
       <c r="B265" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
+        <v>10</v>
+      </c>
+      <c r="B266" t="s">
         <v>123</v>
-      </c>
-      <c r="B266" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="B267" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="268">
@@ -5886,15 +5912,15 @@
         <v>123</v>
       </c>
       <c r="B268" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
+        <v>6</v>
+      </c>
+      <c r="B269" t="s">
         <v>123</v>
-      </c>
-      <c r="B269" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="270">
@@ -5902,7 +5928,7 @@
         <v>123</v>
       </c>
       <c r="B270" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
     </row>
     <row r="271">
@@ -5910,7 +5936,7 @@
         <v>123</v>
       </c>
       <c r="B271" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
     </row>
     <row r="272">
@@ -5918,7 +5944,7 @@
         <v>123</v>
       </c>
       <c r="B272" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
     </row>
     <row r="273">
@@ -5926,7 +5952,7 @@
         <v>123</v>
       </c>
       <c r="B273" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274">
@@ -5934,7 +5960,7 @@
         <v>123</v>
       </c>
       <c r="B274" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
     </row>
     <row r="275">
@@ -5947,10 +5973,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="B276" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="277">
@@ -5958,15 +5984,15 @@
         <v>123</v>
       </c>
       <c r="B277" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
+        <v>171</v>
+      </c>
+      <c r="B278" t="s">
         <v>123</v>
-      </c>
-      <c r="B278" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="279">
@@ -5974,15 +6000,15 @@
         <v>123</v>
       </c>
       <c r="B279" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="B280" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="281">
@@ -5990,36 +6016,36 @@
         <v>123</v>
       </c>
       <c r="B281" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
+        <v>147</v>
+      </c>
+      <c r="B282" t="s">
         <v>123</v>
-      </c>
-      <c r="B282" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B283" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B284" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B285" t="s">
         <v>124</v>
@@ -6027,7 +6053,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B286" t="s">
         <v>124</v>
@@ -6035,7 +6061,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B287" t="s">
         <v>124</v>
@@ -6043,7 +6069,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B288" t="s">
         <v>124</v>
@@ -6051,7 +6077,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="B289" t="s">
         <v>124</v>
@@ -6059,47 +6085,47 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
+        <v>10</v>
+      </c>
+      <c r="B290" t="s">
         <v>124</v>
-      </c>
-      <c r="B290" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B291" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="B292" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B293" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
+        <v>163</v>
+      </c>
+      <c r="B294" t="s">
         <v>125</v>
-      </c>
-      <c r="B294" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B295" t="s">
         <v>125</v>
@@ -6115,31 +6141,31 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
+        <v>157</v>
+      </c>
+      <c r="B297" t="s">
         <v>125</v>
-      </c>
-      <c r="B297" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="B298" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B299" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="B300" t="s">
         <v>125</v>
@@ -6147,7 +6173,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B301" t="s">
         <v>125</v>
@@ -6158,12 +6184,12 @@
         <v>125</v>
       </c>
       <c r="B302" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="B303" t="s">
         <v>125</v>
@@ -6171,26 +6197,26 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B304" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
+        <v>10</v>
+      </c>
+      <c r="B305" t="s">
         <v>125</v>
-      </c>
-      <c r="B305" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
+        <v>135</v>
+      </c>
+      <c r="B306" t="s">
         <v>125</v>
-      </c>
-      <c r="B306" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="307">
@@ -6198,28 +6224,28 @@
         <v>125</v>
       </c>
       <c r="B307" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="B308" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="B309" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B310" t="s">
         <v>126</v>
@@ -6227,15 +6253,15 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
+        <v>177</v>
+      </c>
+      <c r="B311" t="s">
         <v>126</v>
-      </c>
-      <c r="B311" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="B312" t="s">
         <v>126</v>
@@ -6243,15 +6269,15 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B313" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="B314" t="s">
         <v>126</v>
@@ -6259,7 +6285,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B315" t="s">
         <v>126</v>
@@ -6267,7 +6293,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="B316" t="s">
         <v>126</v>
@@ -6275,7 +6301,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="B317" t="s">
         <v>126</v>
@@ -6283,7 +6309,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="B318" t="s">
         <v>126</v>
@@ -6291,7 +6317,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="B319" t="s">
         <v>126</v>
@@ -6299,15 +6325,15 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
+        <v>153</v>
+      </c>
+      <c r="B320" t="s">
         <v>126</v>
-      </c>
-      <c r="B320" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B321" t="s">
         <v>126</v>
@@ -6315,23 +6341,23 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B322" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="B323" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B324" t="s">
         <v>127</v>
@@ -6339,7 +6365,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="B325" t="s">
         <v>127</v>
@@ -6347,7 +6373,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B326" t="s">
         <v>127</v>
@@ -6355,7 +6381,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="B327" t="s">
         <v>127</v>
@@ -6363,7 +6389,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B328" t="s">
         <v>127</v>
@@ -6371,7 +6397,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="B329" t="s">
         <v>127</v>
@@ -6379,7 +6405,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B330" t="s">
         <v>127</v>
@@ -6387,7 +6413,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B331" t="s">
         <v>127</v>
@@ -6395,7 +6421,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B332" t="s">
         <v>127</v>
@@ -6403,7 +6429,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B333" t="s">
         <v>127</v>
@@ -6411,7 +6437,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B334" t="s">
         <v>127</v>
@@ -6419,23 +6445,23 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="B335" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B336" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B337" t="s">
         <v>128</v>
@@ -6443,7 +6469,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="B338" t="s">
         <v>128</v>
@@ -6451,7 +6477,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B339" t="s">
         <v>128</v>
@@ -6459,7 +6485,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="B340" t="s">
         <v>128</v>
@@ -6467,7 +6493,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="B341" t="s">
         <v>128</v>
@@ -6475,7 +6501,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="B342" t="s">
         <v>128</v>
@@ -6483,7 +6509,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="B343" t="s">
         <v>128</v>
@@ -6491,7 +6517,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B344" t="s">
         <v>128</v>
@@ -6499,7 +6525,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="B345" t="s">
         <v>128</v>
@@ -6507,7 +6533,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B346" t="s">
         <v>128</v>
@@ -6515,7 +6541,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="B347" t="s">
         <v>128</v>
@@ -6523,7 +6549,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B348" t="s">
         <v>128</v>
@@ -6531,7 +6557,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B349" t="s">
         <v>128</v>
@@ -6539,15 +6565,15 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
+        <v>166</v>
+      </c>
+      <c r="B350" t="s">
         <v>128</v>
-      </c>
-      <c r="B350" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B351" t="s">
         <v>128</v>
@@ -6555,47 +6581,47 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="B352" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B353" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="B354" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B355" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B356" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="B357" t="s">
         <v>129</v>
@@ -6603,7 +6629,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="B358" t="s">
         <v>129</v>
@@ -6611,7 +6637,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="B359" t="s">
         <v>129</v>
@@ -6619,31 +6645,31 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
+        <v>13</v>
+      </c>
+      <c r="B360" t="s">
         <v>129</v>
-      </c>
-      <c r="B360" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B361" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B362" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B363" t="s">
         <v>130</v>
@@ -6654,15 +6680,15 @@
         <v>130</v>
       </c>
       <c r="B364" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
+        <v>150</v>
+      </c>
+      <c r="B365" t="s">
         <v>130</v>
-      </c>
-      <c r="B365" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="366">
@@ -6670,36 +6696,36 @@
         <v>130</v>
       </c>
       <c r="B366" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B367" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B368" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B369" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B370" t="s">
         <v>132</v>
@@ -6710,12 +6736,12 @@
         <v>132</v>
       </c>
       <c r="B371" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="B372" t="s">
         <v>132</v>
@@ -6723,23 +6749,23 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B373" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
+        <v>174</v>
+      </c>
+      <c r="B374" t="s">
         <v>132</v>
-      </c>
-      <c r="B374" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B375" t="s">
         <v>132</v>
@@ -6747,26 +6773,26 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B376" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
+        <v>147</v>
+      </c>
+      <c r="B377" t="s">
         <v>132</v>
-      </c>
-      <c r="B377" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
+        <v>137</v>
+      </c>
+      <c r="B378" t="s">
         <v>132</v>
-      </c>
-      <c r="B378" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="379">
@@ -6774,7 +6800,7 @@
         <v>132</v>
       </c>
       <c r="B379" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
     </row>
     <row r="380">
@@ -6782,7 +6808,7 @@
         <v>132</v>
       </c>
       <c r="B380" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="381">
@@ -6790,28 +6816,28 @@
         <v>132</v>
       </c>
       <c r="B381" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B382" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B383" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B384" t="s">
         <v>134</v>
@@ -6819,7 +6845,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B385" t="s">
         <v>134</v>
@@ -6827,15 +6853,15 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
+        <v>141</v>
+      </c>
+      <c r="B386" t="s">
         <v>134</v>
-      </c>
-      <c r="B386" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B387" t="s">
         <v>134</v>
@@ -6846,28 +6872,28 @@
         <v>134</v>
       </c>
       <c r="B388" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B389" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B390" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="B391" t="s">
         <v>135</v>
@@ -6878,12 +6904,12 @@
         <v>135</v>
       </c>
       <c r="B392" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="B393" t="s">
         <v>135</v>
@@ -6891,15 +6917,15 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B394" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B395" t="s">
         <v>135</v>
@@ -6907,18 +6933,18 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
+        <v>122</v>
+      </c>
+      <c r="B396" t="s">
         <v>135</v>
-      </c>
-      <c r="B396" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
+        <v>150</v>
+      </c>
+      <c r="B397" t="s">
         <v>135</v>
-      </c>
-      <c r="B397" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="398">
@@ -6926,7 +6952,7 @@
         <v>135</v>
       </c>
       <c r="B398" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="399">
@@ -6934,15 +6960,15 @@
         <v>135</v>
       </c>
       <c r="B399" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="B400" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="401">
@@ -6950,15 +6976,15 @@
         <v>135</v>
       </c>
       <c r="B401" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="s">
+        <v>169</v>
+      </c>
+      <c r="B402" t="s">
         <v>135</v>
-      </c>
-      <c r="B402" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="403">
@@ -6966,7 +6992,7 @@
         <v>135</v>
       </c>
       <c r="B403" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="404">
@@ -6974,23 +7000,23 @@
         <v>135</v>
       </c>
       <c r="B404" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B405" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B406" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="407">
@@ -7003,15 +7029,15 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
+        <v>149</v>
+      </c>
+      <c r="B408" t="s">
         <v>138</v>
-      </c>
-      <c r="B408" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B409" t="s">
         <v>138</v>
@@ -7019,71 +7045,71 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
+        <v>136</v>
+      </c>
+      <c r="B410" t="s">
         <v>138</v>
-      </c>
-      <c r="B410" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B411" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B412" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B413" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="B414" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B415" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B416" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B417" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B418" t="s">
         <v>139</v>
@@ -7091,15 +7117,15 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B419" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="B420" t="s">
         <v>139</v>
@@ -7107,159 +7133,159 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B421" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B422" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B423" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B424" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="B425" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="B426" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="B427" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B428" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B429" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="B430" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="B431" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="B432" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="B433" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="B434" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B435" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="B436" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B437" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B438" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="B439" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="B440" t="s">
         <v>140</v>
@@ -7267,23 +7293,23 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
+        <v>152</v>
+      </c>
+      <c r="B441" t="s">
         <v>140</v>
-      </c>
-      <c r="B441" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s">
+        <v>178</v>
+      </c>
+      <c r="B442" t="s">
         <v>140</v>
-      </c>
-      <c r="B442" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B443" t="s">
         <v>140</v>
@@ -7291,159 +7317,159 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
+        <v>175</v>
+      </c>
+      <c r="B444" t="s">
         <v>140</v>
-      </c>
-      <c r="B444" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="s">
+        <v>158</v>
+      </c>
+      <c r="B445" t="s">
         <v>140</v>
-      </c>
-      <c r="B445" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B446" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B447" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B448" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="B449" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B450" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
+        <v>141</v>
+      </c>
+      <c r="B451" t="s">
         <v>140</v>
-      </c>
-      <c r="B451" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B452" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B453" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B454" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B455" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B456" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B457" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B458" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B459" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B460" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B461" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B462" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="B463" t="s">
         <v>143</v>
@@ -7451,10 +7477,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
+        <v>129</v>
+      </c>
+      <c r="B464" t="s">
         <v>143</v>
-      </c>
-      <c r="B464" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="465">
@@ -7462,7 +7488,7 @@
         <v>143</v>
       </c>
       <c r="B465" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
     </row>
     <row r="466">
@@ -7470,172 +7496,172 @@
         <v>143</v>
       </c>
       <c r="B466" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B467" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B468" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="B469" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B470" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="B471" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B472" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B473" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B474" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B475" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B476" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="B477" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="B478" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B479" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="B480" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="B481" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B482" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B483" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B484" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B485" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="B486" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="B487" t="s">
         <v>144</v>
@@ -7643,7 +7669,7 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="B488" t="s">
         <v>144</v>
@@ -7651,50 +7677,50 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
+        <v>139</v>
+      </c>
+      <c r="B489" t="s">
         <v>144</v>
-      </c>
-      <c r="B489" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B490" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B491" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B492" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B493" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="B494" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="495">
@@ -7702,108 +7728,108 @@
         <v>145</v>
       </c>
       <c r="B495" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B496" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B497" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="B498" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B499" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="B500" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B501" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="B502" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B503" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B504" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B505" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B506" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B507" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B508" t="s">
         <v>148</v>
@@ -7811,58 +7837,58 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B509" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B510" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B511" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B512" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B513" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="s">
+        <v>150</v>
+      </c>
+      <c r="B514" t="s">
         <v>149</v>
-      </c>
-      <c r="B514" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B515" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="516">
@@ -7870,7 +7896,7 @@
         <v>150</v>
       </c>
       <c r="B516" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="517">
@@ -7878,15 +7904,15 @@
         <v>150</v>
       </c>
       <c r="B517" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B518" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="519">
@@ -7894,7 +7920,7 @@
         <v>150</v>
       </c>
       <c r="B519" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="520">
@@ -7902,7 +7928,7 @@
         <v>150</v>
       </c>
       <c r="B520" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="521">
@@ -7910,7 +7936,7 @@
         <v>150</v>
       </c>
       <c r="B521" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
     </row>
     <row r="522">
@@ -7918,47 +7944,47 @@
         <v>150</v>
       </c>
       <c r="B522" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B523" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B524" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B525" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B526" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B527" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="528">
@@ -7966,23 +7992,23 @@
         <v>151</v>
       </c>
       <c r="B528" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B529" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B530" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="531">
@@ -7990,132 +8016,132 @@
         <v>151</v>
       </c>
       <c r="B531" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B532" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="B533" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B534" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B535" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B536" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="B537" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B538" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B539" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B540" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B541" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B542" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B543" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="B544" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B545" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B546" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B547" t="s">
         <v>152</v>
@@ -8123,15 +8149,15 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
+        <v>162</v>
+      </c>
+      <c r="B548" t="s">
         <v>152</v>
-      </c>
-      <c r="B548" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B549" t="s">
         <v>152</v>
@@ -8139,7 +8165,7 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B550" t="s">
         <v>152</v>
@@ -8147,362 +8173,362 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B551" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="B552" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B553" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B554" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B555" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B556" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B557" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="B558" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="B559" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B560" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B561" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B562" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B563" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B564" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B565" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B566" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B567" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B568" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B569" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B570" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B571" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B572" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="B573" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B574" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B575" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="B576" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="B577" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B578" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B579" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="B580" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B581" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="B582" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="B583" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="B584" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B585" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B586" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B587" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B588" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="B589" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="B590" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B591" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B592" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B593" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B594" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B595" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="596">
@@ -8510,7 +8536,7 @@
         <v>157</v>
       </c>
       <c r="B596" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="597">
@@ -8518,244 +8544,244 @@
         <v>157</v>
       </c>
       <c r="B597" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="B598" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B599" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="s">
+        <v>154</v>
+      </c>
+      <c r="B600" t="s">
         <v>157</v>
-      </c>
-      <c r="B600" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B601" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B602" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B603" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B604" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="B605" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B606" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B607" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B608" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B609" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B610" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B611" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="B612" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="B613" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B614" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="B615" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B616" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="B617" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="B618" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B619" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B620" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="B621" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="B622" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="B623" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B624" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="B625" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B626" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B627" t="s">
         <v>160</v>
@@ -8763,7 +8789,7 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="B628" t="s">
         <v>160</v>
@@ -8771,7 +8797,7 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B629" t="s">
         <v>160</v>
@@ -8779,7 +8805,7 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B630" t="s">
         <v>160</v>
@@ -8787,7 +8813,7 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B631" t="s">
         <v>160</v>
@@ -8795,103 +8821,103 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="B632" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B633" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B634" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B635" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B636" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="B637" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B638" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B639" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B640" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="B641" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B642" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B643" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B644" t="s">
         <v>161</v>
@@ -8899,74 +8925,74 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
+        <v>123</v>
+      </c>
+      <c r="B645" t="s">
         <v>161</v>
-      </c>
-      <c r="B645" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="s">
+        <v>8</v>
+      </c>
+      <c r="B646" t="s">
         <v>161</v>
-      </c>
-      <c r="B646" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="s">
+        <v>175</v>
+      </c>
+      <c r="B647" t="s">
         <v>161</v>
-      </c>
-      <c r="B647" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="s">
+        <v>125</v>
+      </c>
+      <c r="B648" t="s">
         <v>161</v>
-      </c>
-      <c r="B648" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="s">
+        <v>148</v>
+      </c>
+      <c r="B649" t="s">
         <v>161</v>
-      </c>
-      <c r="B649" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="s">
+        <v>153</v>
+      </c>
+      <c r="B650" t="s">
         <v>161</v>
-      </c>
-      <c r="B650" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="B651" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B652" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="s">
+        <v>162</v>
+      </c>
+      <c r="B653" t="s">
         <v>161</v>
-      </c>
-      <c r="B653" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="654">
@@ -8974,7 +9000,7 @@
         <v>162</v>
       </c>
       <c r="B654" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="655">
@@ -8982,7 +9008,7 @@
         <v>162</v>
       </c>
       <c r="B655" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="656">
@@ -8990,20 +9016,20 @@
         <v>162</v>
       </c>
       <c r="B656" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B657" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B658" t="s">
         <v>162</v>
@@ -9014,7 +9040,7 @@
         <v>162</v>
       </c>
       <c r="B659" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
     </row>
     <row r="660">
@@ -9022,87 +9048,87 @@
         <v>162</v>
       </c>
       <c r="B660" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B661" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B662" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B663" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B664" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B665" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B666" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="B667" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B668" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="B669" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B670" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
     </row>
     <row r="671">
@@ -9110,244 +9136,244 @@
         <v>165</v>
       </c>
       <c r="B671" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="B672" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="B673" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B674" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B675" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="B676" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B677" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="B678" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B679" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B680" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B681" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B682" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B683" t="s">
-        <v>152</v>
+        <v>8</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B684" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="B685" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B686" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="B687" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="B688" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B689" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B690" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B691" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B692" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="B693" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="B694" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>166</v>
+        <v>6</v>
       </c>
       <c r="B695" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B696" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B697" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B698" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B699" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="B700" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B701" t="s">
         <v>167</v>
@@ -9358,23 +9384,23 @@
         <v>167</v>
       </c>
       <c r="B702" t="s">
-        <v>167</v>
+        <v>8</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B703" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B704" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="705">
@@ -9382,20 +9408,20 @@
         <v>167</v>
       </c>
       <c r="B705" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="B706" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="B707" t="s">
         <v>167</v>
@@ -9403,47 +9429,47 @@
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="B708" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="B709" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B710" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B711" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B712" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="B713" t="s">
         <v>168</v>
@@ -9451,23 +9477,23 @@
     </row>
     <row r="714">
       <c r="A714" t="s">
+        <v>165</v>
+      </c>
+      <c r="B714" t="s">
         <v>168</v>
-      </c>
-      <c r="B714" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="s">
+        <v>123</v>
+      </c>
+      <c r="B715" t="s">
         <v>168</v>
-      </c>
-      <c r="B715" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="B716" t="s">
         <v>168</v>
@@ -9475,58 +9501,58 @@
     </row>
     <row r="717">
       <c r="A717" t="s">
+        <v>153</v>
+      </c>
+      <c r="B717" t="s">
         <v>168</v>
-      </c>
-      <c r="B717" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="s">
+        <v>144</v>
+      </c>
+      <c r="B718" t="s">
         <v>168</v>
-      </c>
-      <c r="B718" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="s">
+        <v>149</v>
+      </c>
+      <c r="B719" t="s">
         <v>168</v>
-      </c>
-      <c r="B719" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B720" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B721" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B722" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="s">
+        <v>174</v>
+      </c>
+      <c r="B723" t="s">
         <v>169</v>
-      </c>
-      <c r="B723" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="724">
@@ -9534,7 +9560,7 @@
         <v>169</v>
       </c>
       <c r="B724" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
     </row>
     <row r="725">
@@ -9542,7 +9568,7 @@
         <v>169</v>
       </c>
       <c r="B725" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="726">
@@ -9550,15 +9576,15 @@
         <v>169</v>
       </c>
       <c r="B726" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B727" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
     </row>
     <row r="728">
@@ -9566,79 +9592,79 @@
         <v>169</v>
       </c>
       <c r="B728" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="B729" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B730" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B731" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B732" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B733" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B734" t="s">
-        <v>152</v>
+        <v>8</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B735" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B736" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="B737" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
     </row>
     <row r="738">
@@ -9646,7 +9672,7 @@
         <v>171</v>
       </c>
       <c r="B738" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="739">
@@ -9654,15 +9680,15 @@
         <v>171</v>
       </c>
       <c r="B739" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="s">
+        <v>169</v>
+      </c>
+      <c r="B740" t="s">
         <v>171</v>
-      </c>
-      <c r="B740" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="741">
@@ -9670,31 +9696,31 @@
         <v>171</v>
       </c>
       <c r="B741" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="s">
+        <v>147</v>
+      </c>
+      <c r="B742" t="s">
         <v>171</v>
-      </c>
-      <c r="B742" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B743" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="B744" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="745">
@@ -9702,15 +9728,15 @@
         <v>171</v>
       </c>
       <c r="B745" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="B746" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="747">
@@ -9718,28 +9744,28 @@
         <v>171</v>
       </c>
       <c r="B747" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B748" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="B749" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B750" t="s">
         <v>171</v>
@@ -9750,183 +9776,183 @@
         <v>173</v>
       </c>
       <c r="B751" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B752" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="B753" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="B754" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="B755" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B756" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B757" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B758" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="s">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="B759" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B760" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B761" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="B762" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="s">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="B763" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B764" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B765" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B766" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B767" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="B768" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B769" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B770" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B771" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B772" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B773" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="774">
@@ -9934,60 +9960,60 @@
         <v>174</v>
       </c>
       <c r="B774" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="B775" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B776" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B777" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="s">
+        <v>174</v>
+      </c>
+      <c r="B778" t="s">
         <v>169</v>
-      </c>
-      <c r="B778" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B779" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B780" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="s">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="B781" t="s">
         <v>174</v>
@@ -9995,42 +10021,42 @@
     </row>
     <row r="782">
       <c r="A782" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B782" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B783" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="B784" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="B785" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="B786" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="787">
@@ -10043,39 +10069,39 @@
     </row>
     <row r="788">
       <c r="A788" t="s">
+        <v>10</v>
+      </c>
+      <c r="B788" t="s">
         <v>176</v>
-      </c>
-      <c r="B788" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="s">
+        <v>165</v>
+      </c>
+      <c r="B789" t="s">
         <v>176</v>
-      </c>
-      <c r="B789" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="s">
+        <v>164</v>
+      </c>
+      <c r="B790" t="s">
         <v>176</v>
-      </c>
-      <c r="B790" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="s">
+        <v>171</v>
+      </c>
+      <c r="B791" t="s">
         <v>176</v>
-      </c>
-      <c r="B791" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B792" t="s">
         <v>176</v>
@@ -10083,15 +10109,15 @@
     </row>
     <row r="793">
       <c r="A793" t="s">
+        <v>155</v>
+      </c>
+      <c r="B793" t="s">
         <v>176</v>
-      </c>
-      <c r="B793" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B794" t="s">
         <v>176</v>
@@ -10099,10 +10125,122 @@
     </row>
     <row r="795">
       <c r="A795" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="B795" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="s">
+        <v>177</v>
+      </c>
+      <c r="B796" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="s">
+        <v>133</v>
+      </c>
+      <c r="B797" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="s">
+        <v>137</v>
+      </c>
+      <c r="B798" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="s">
+        <v>128</v>
+      </c>
+      <c r="B799" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="s">
+        <v>178</v>
+      </c>
+      <c r="B800" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="s">
+        <v>178</v>
+      </c>
+      <c r="B801" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="s">
+        <v>178</v>
+      </c>
+      <c r="B802" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="s">
+        <v>178</v>
+      </c>
+      <c r="B803" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="s">
+        <v>178</v>
+      </c>
+      <c r="B804" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="s">
+        <v>175</v>
+      </c>
+      <c r="B805" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="s">
+        <v>170</v>
+      </c>
+      <c r="B806" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="s">
+        <v>178</v>
+      </c>
+      <c r="B807" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="s">
+        <v>146</v>
+      </c>
+      <c r="B808" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="s">
+        <v>132</v>
+      </c>
+      <c r="B809" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
